--- a/transfer_model/data/t47d_data.xlsx
+++ b/transfer_model/data/t47d_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7710"/>
+    <workbookView windowWidth="27690" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="T47D" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="71">
   <si>
     <t>values</t>
   </si>
@@ -134,6 +134,9 @@
     <t>T47D 120 minutes ins + aa</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>normalized intensity</t>
   </si>
   <si>
@@ -233,11 +236,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +265,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -270,16 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,126 +402,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,13 +442,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,19 +550,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,132 +605,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,41 +972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1065,156 +1014,191 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,7 +1425,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0789797362281299</c:v>
+                    <c:v>0.0789797362281296</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0466253667343365</c:v>
@@ -1468,7 +1452,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0789797362281299</c:v>
+                    <c:v>0.0789797362281296</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0466253667343365</c:v>
@@ -1530,7 +1514,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2419973701357</c:v>
+                  <c:v>1.24199737013569</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.243391249168</c:v>
@@ -1958,22 +1942,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0656856270178253</c:v>
+                    <c:v>0.065685627017826</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0786581801823264</c:v>
+                    <c:v>0.0786581801823263</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0326512546610812</c:v>
+                    <c:v>0.0326512546610819</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.0113862959836109</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.048781830426266</c:v>
+                    <c:v>0.0487818304262665</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0579416099519717</c:v>
+                    <c:v>0.0579416099519715</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1985,22 +1969,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0656856270178253</c:v>
+                    <c:v>0.065685627017826</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0786581801823264</c:v>
+                    <c:v>0.0786581801823263</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0326512546610812</c:v>
+                    <c:v>0.0326512546610819</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.0113862959836109</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.048781830426266</c:v>
+                    <c:v>0.0487818304262665</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0579416099519717</c:v>
+                    <c:v>0.0579416099519715</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2047,7 +2031,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.13603331284448</c:v>
+                  <c:v>1.13603331284449</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.12805849031038</c:v>
@@ -2062,7 +2046,7 @@
                   <c:v>0.95015429912413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.01212643663296</c:v>
+                  <c:v>1.01212643663295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,22 +2089,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0699936958959373</c:v>
+                    <c:v>0.0699936958959369</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0169433390407439</c:v>
+                    <c:v>0.0169433390407437</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0525678521408976</c:v>
+                    <c:v>0.0525678521408973</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.0226866452295173</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0491696400242856</c:v>
+                    <c:v>0.049169640024286</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.07422103237248</c:v>
+                    <c:v>0.0742210323724792</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2132,22 +2116,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0699936958959373</c:v>
+                    <c:v>0.0699936958959369</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0169433390407439</c:v>
+                    <c:v>0.0169433390407437</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0525678521408976</c:v>
+                    <c:v>0.0525678521408973</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.0226866452295173</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0491696400242856</c:v>
+                    <c:v>0.049169640024286</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.07422103237248</c:v>
+                    <c:v>0.0742210323724792</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2194,19 +2178,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.951075135604779</c:v>
+                  <c:v>0.95107513560478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.849732931030977</c:v>
+                  <c:v>0.849732931030978</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.833464623787761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.974305290701133</c:v>
+                  <c:v>0.974305290701132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93468156902284</c:v>
+                  <c:v>0.934681569022839</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.12705602736553</c:v>
@@ -2487,22 +2471,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0326338072543456</c:v>
+                    <c:v>0.0250861741596795</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0755396303309435</c:v>
+                    <c:v>0.0830632255204328</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0481105192674898</c:v>
+                    <c:v>0.0515294575534657</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0679462632389635</c:v>
+                    <c:v>0.0575945861815632</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.10404977940431</c:v>
+                    <c:v>0.0943268454069649</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.120723555543383</c:v>
+                    <c:v>0.111985275189364</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2514,22 +2498,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0326338072543456</c:v>
+                    <c:v>0.0250861741596795</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0755396303309435</c:v>
+                    <c:v>0.0830632255204328</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0481105192674898</c:v>
+                    <c:v>0.0515294575534657</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0679462632389635</c:v>
+                    <c:v>0.0575945861815632</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.10404977940431</c:v>
+                    <c:v>0.0943268454069649</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.120723555543383</c:v>
+                    <c:v>0.111985275189364</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2576,22 +2560,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.644957461770327</c:v>
+                  <c:v>0.655133770366415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.03108899162482</c:v>
+                  <c:v>1.05075180084051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.967346931623423</c:v>
+                  <c:v>0.984810422772257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.938749998366617</c:v>
+                  <c:v>0.952761852368906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.857912043215221</c:v>
+                  <c:v>0.867837215388401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.889135001781096</c:v>
+                  <c:v>0.899615372614114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,22 +2618,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0922352403510201</c:v>
+                    <c:v>0.0833780341639967</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0964661485890707</c:v>
+                    <c:v>0.121148020353853</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.102388550956664</c:v>
+                    <c:v>0.116949922168272</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0524979326465374</c:v>
+                    <c:v>0.0585954612647501</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0511637469465059</c:v>
+                    <c:v>0.0703344081618354</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.137642208594706</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2661,22 +2645,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0922352403510201</c:v>
+                    <c:v>0.0833780341639967</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0964661485890707</c:v>
+                    <c:v>0.121148020353853</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.102388550956664</c:v>
+                    <c:v>0.116949922168272</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0524979326465374</c:v>
+                    <c:v>0.0585954612647501</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0511637469465059</c:v>
+                    <c:v>0.0703344081618354</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.137642208594706</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2723,22 +2707,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.01280703432801</c:v>
+                  <c:v>1.02783361480452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15042760238959</c:v>
+                  <c:v>1.17608817251921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15240493276189</c:v>
+                  <c:v>1.17613596650772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.09930283994081</c:v>
+                  <c:v>1.11944961285295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.05239208972831</c:v>
+                  <c:v>1.07370553024781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25248540426064</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,7 +3000,7 @@
                     <c:v>0.116522108889469</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.196923094073116</c:v>
+                    <c:v>0.196923094073117</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.186687449943647</c:v>
@@ -3043,7 +3027,7 @@
                     <c:v>0.116522108889469</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.196923094073116</c:v>
+                    <c:v>0.196923094073117</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.186687449943647</c:v>
@@ -3151,16 +3135,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0590760700149027</c:v>
+                    <c:v>0.0590760700149031</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0762178166868618</c:v>
+                    <c:v>0.076217816686862</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0723257356523615</c:v>
+                    <c:v>0.0723257356523613</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0799663814206448</c:v>
+                    <c:v>0.0799663814206447</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.109100000768488</c:v>
@@ -3178,16 +3162,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0590760700149027</c:v>
+                    <c:v>0.0590760700149031</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0762178166868618</c:v>
+                    <c:v>0.076217816686862</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0723257356523615</c:v>
+                    <c:v>0.0723257356523613</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0799663814206448</c:v>
+                    <c:v>0.0799663814206447</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.109100000768488</c:v>
@@ -3249,13 +3233,13 @@
                   <c:v>0.290550126159962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.307164894780091</c:v>
+                  <c:v>0.30716489478009</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.369893152919989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.408646095324427</c:v>
+                  <c:v>0.408646095324426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,22 +3517,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.113953419483396</c:v>
+                    <c:v>0.113953419483397</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0997619832141149</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.175126562053026</c:v>
+                    <c:v>0.175126562053024</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.226050359168758</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0763817210680658</c:v>
+                    <c:v>0.076381721068067</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0878678519319495</c:v>
+                    <c:v>0.0878678519319493</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3560,22 +3544,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.113953419483396</c:v>
+                    <c:v>0.113953419483397</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0997619832141149</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.175126562053026</c:v>
+                    <c:v>0.175126562053024</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.226050359168758</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0763817210680658</c:v>
+                    <c:v>0.076381721068067</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0878678519319495</c:v>
+                    <c:v>0.0878678519319493</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3622,7 +3606,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.861333233004183</c:v>
+                  <c:v>0.861333233004184</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.27775624018917</c:v>
@@ -3680,22 +3664,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0252526461034577</c:v>
+                    <c:v>0.0252526461034582</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.120472004818272</c:v>
+                    <c:v>0.120472004818273</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.123635887303362</c:v>
+                    <c:v>0.123635887303361</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0612181668633904</c:v>
+                    <c:v>0.06121816686339</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.123187909927696</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0683977471361647</c:v>
+                    <c:v>0.068397747136164</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3707,22 +3691,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0252526461034577</c:v>
+                    <c:v>0.0252526461034582</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.120472004818272</c:v>
+                    <c:v>0.120472004818273</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.123635887303362</c:v>
+                    <c:v>0.123635887303361</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0612181668633904</c:v>
+                    <c:v>0.06121816686339</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.123187909927696</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0683977471361647</c:v>
+                    <c:v>0.068397747136164</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3772,10 +3756,10 @@
                   <c:v>0.448811137173921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.764278998492523</c:v>
+                  <c:v>0.764278998492524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86047866672998</c:v>
+                  <c:v>0.860478666729981</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.548105643319029</c:v>
@@ -3784,7 +3768,7 @@
                   <c:v>0.561228895141146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.576018276339689</c:v>
+                  <c:v>0.576018276339688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4056,16 +4040,16 @@
                     <c:v>0.061589547693388</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.068497428823963</c:v>
+                    <c:v>0.0684974288239637</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0474639334651191</c:v>
+                    <c:v>0.047463933465119</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0312652170921124</c:v>
+                    <c:v>0.0312652170921123</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0435221234112721</c:v>
+                    <c:v>0.0435221234112723</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4083,16 +4067,16 @@
                     <c:v>0.061589547693388</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.068497428823963</c:v>
+                    <c:v>0.0684974288239637</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0474639334651191</c:v>
+                    <c:v>0.047463933465119</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0312652170921124</c:v>
+                    <c:v>0.0312652170921123</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0435221234112721</c:v>
+                    <c:v>0.0435221234112723</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4145,13 +4129,13 @@
                   <c:v>0.567550329473042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.737203753310186</c:v>
+                  <c:v>0.737203753310185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.637630896377921</c:v>
+                  <c:v>0.63763089637792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.550480512920904</c:v>
+                  <c:v>0.550480512920903</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.527821009770336</c:v>
@@ -4200,16 +4184,16 @@
                     <c:v>0.180228773923146</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0934208402035363</c:v>
+                    <c:v>0.0934208402035359</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0657628273265891</c:v>
+                    <c:v>0.0657628273265881</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.117770882040427</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1745534003661</c:v>
+                    <c:v>0.174553400366101</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.169564308182067</c:v>
@@ -4227,16 +4211,16 @@
                     <c:v>0.180228773923146</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0934208402035363</c:v>
+                    <c:v>0.0934208402035359</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0657628273265891</c:v>
+                    <c:v>0.0657628273265881</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.117770882040427</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1745534003661</c:v>
+                    <c:v>0.174553400366101</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.169564308182067</c:v>
@@ -4289,7 +4273,7 @@
                   <c:v>1.38629632929143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34323644230576</c:v>
+                  <c:v>1.34323644230577</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.36904170770653</c:v>
@@ -4582,16 +4566,16 @@
                     <c:v>0.123086640634439</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0592926256578067</c:v>
+                    <c:v>0.0592926256578074</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0785270673642478</c:v>
+                    <c:v>0.0785270673642484</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.067807652639053</c:v>
+                    <c:v>0.0678076526390534</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0584363647563638</c:v>
+                    <c:v>0.0584363647563634</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.043526431788854</c:v>
@@ -4609,16 +4593,16 @@
                     <c:v>0.123086640634439</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0592926256578067</c:v>
+                    <c:v>0.0592926256578074</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0785270673642478</c:v>
+                    <c:v>0.0785270673642484</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.067807652639053</c:v>
+                    <c:v>0.0678076526390534</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0584363647563638</c:v>
+                    <c:v>0.0584363647563634</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.043526431788854</c:v>
@@ -4680,7 +4664,7 @@
                   <c:v>0.922235488952578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.850056065924776</c:v>
+                  <c:v>0.850056065924775</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.801442905378087</c:v>
@@ -4726,22 +4710,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0943029142396922</c:v>
+                    <c:v>0.0943029142396924</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.103263246633621</c:v>
+                    <c:v>0.103263246633622</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0705627844418313</c:v>
+                    <c:v>0.0705627844418305</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.080978133853064</c:v>
+                    <c:v>0.0809781338530636</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0772543599681987</c:v>
+                    <c:v>0.0772543599681996</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0781748146091371</c:v>
+                    <c:v>0.0781748146091385</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4753,22 +4737,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0943029142396922</c:v>
+                    <c:v>0.0943029142396924</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.103263246633621</c:v>
+                    <c:v>0.103263246633622</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0705627844418313</c:v>
+                    <c:v>0.0705627844418305</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.080978133853064</c:v>
+                    <c:v>0.0809781338530636</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0772543599681987</c:v>
+                    <c:v>0.0772543599681996</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0781748146091371</c:v>
+                    <c:v>0.0781748146091385</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4815,7 +4799,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.809653949590925</c:v>
+                  <c:v>0.809653949590926</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.21420297883456</c:v>
@@ -5096,22 +5080,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0757393101773983</c:v>
+                    <c:v>0.0757393101773979</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.157364997957402</c:v>
+                    <c:v>0.157364997957403</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.16058408615232</c:v>
+                    <c:v>0.160584086152321</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.143282517832705</c:v>
+                    <c:v>0.143282517832706</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0848380895228592</c:v>
+                    <c:v>0.0848380895228598</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0468147874836915</c:v>
+                    <c:v>0.0468147874836917</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5123,22 +5107,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0757393101773983</c:v>
+                    <c:v>0.0757393101773979</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.157364997957402</c:v>
+                    <c:v>0.157364997957403</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.16058408615232</c:v>
+                    <c:v>0.160584086152321</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.143282517832705</c:v>
+                    <c:v>0.143282517832706</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0848380895228592</c:v>
+                    <c:v>0.0848380895228598</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0468147874836915</c:v>
+                    <c:v>0.0468147874836917</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5246,19 +5230,19 @@
                     <c:v>0.117791824956244</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0997810055598334</c:v>
+                    <c:v>0.0997810055598335</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.109708347723361</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0983348167819152</c:v>
+                    <c:v>0.0983348167819151</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.069386775563768</c:v>
+                    <c:v>0.0693867755637682</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0786542392859522</c:v>
+                    <c:v>0.0786542392859529</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5273,19 +5257,19 @@
                     <c:v>0.117791824956244</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0997810055598334</c:v>
+                    <c:v>0.0997810055598335</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.109708347723361</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0983348167819152</c:v>
+                    <c:v>0.0983348167819151</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.069386775563768</c:v>
+                    <c:v>0.0693867755637682</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0786542392859522</c:v>
+                    <c:v>0.0786542392859529</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5338,16 +5322,16 @@
                   <c:v>0.606336409189319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.649266852336427</c:v>
+                  <c:v>0.649266852336428</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.696247534845596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.635791079281843</c:v>
+                  <c:v>0.635791079281842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.849779971687834</c:v>
+                  <c:v>0.849779971687833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5625,22 +5609,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0946191662470768</c:v>
+                    <c:v>0.0946191662470772</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0917932779093127</c:v>
+                    <c:v>0.0917932779093114</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0649492180335446</c:v>
+                    <c:v>0.0649492180335434</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0848759359427434</c:v>
+                    <c:v>0.0848759359427439</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0645747875590962</c:v>
+                    <c:v>0.064574787559097</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0659387007027392</c:v>
+                    <c:v>0.0659387007027396</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5652,22 +5636,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0946191662470768</c:v>
+                    <c:v>0.0946191662470772</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0917932779093127</c:v>
+                    <c:v>0.0917932779093114</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0649492180335446</c:v>
+                    <c:v>0.0649492180335434</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0848759359427434</c:v>
+                    <c:v>0.0848759359427439</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0645747875590962</c:v>
+                    <c:v>0.064574787559097</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0659387007027392</c:v>
+                    <c:v>0.0659387007027396</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5772,22 +5756,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0581027145052941</c:v>
+                    <c:v>0.0581027145052938</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0898532472343448</c:v>
+                    <c:v>0.0898532472343447</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.0970163949124117</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0747062165910201</c:v>
+                    <c:v>0.0747062165910203</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0767524505504399</c:v>
+                    <c:v>0.0767524505504401</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0684862116102313</c:v>
+                    <c:v>0.0684862116102309</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5799,22 +5783,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0581027145052941</c:v>
+                    <c:v>0.0581027145052938</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0898532472343448</c:v>
+                    <c:v>0.0898532472343447</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.0970163949124117</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0747062165910201</c:v>
+                    <c:v>0.0747062165910203</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0767524505504399</c:v>
+                    <c:v>0.0767524505504401</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0684862116102313</c:v>
+                    <c:v>0.0684862116102309</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5861,7 +5845,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.71725361541493</c:v>
+                  <c:v>0.717253615414931</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.755743409814092</c:v>
@@ -5870,13 +5854,13 @@
                   <c:v>0.725353260296451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.763773741130635</c:v>
+                  <c:v>0.763773741130634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748814846191174</c:v>
+                  <c:v>0.748814846191173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.771711291403381</c:v>
+                  <c:v>0.77171129140338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6145,16 +6129,16 @@
                     <c:v>0.123086640634439</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0592926256578067</c:v>
+                    <c:v>0.0592926256578074</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0785270673642478</c:v>
+                    <c:v>0.0785270673642484</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.067807652639053</c:v>
+                    <c:v>0.0678076526390534</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0584363647563638</c:v>
+                    <c:v>0.0584363647563634</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.043526431788854</c:v>
@@ -6172,16 +6156,16 @@
                     <c:v>0.123086640634439</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0592926256578067</c:v>
+                    <c:v>0.0592926256578074</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0785270673642478</c:v>
+                    <c:v>0.0785270673642484</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.067807652639053</c:v>
+                    <c:v>0.0678076526390534</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.0584363647563638</c:v>
+                    <c:v>0.0584363647563634</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0.043526431788854</c:v>
@@ -6659,7 +6643,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0610914292159004</c:v>
+                    <c:v>0.0610914292158999</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0761351649676539</c:v>
@@ -6686,7 +6670,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0610914292159004</c:v>
+                    <c:v>0.0610914292158999</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0761351649676539</c:v>
@@ -7169,7 +7153,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0328537720824515</c:v>
+                    <c:v>0.032853772082452</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0190322971416426</c:v>
@@ -7196,7 +7180,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0328537720824515</c:v>
+                    <c:v>0.032853772082452</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0190322971416426</c:v>
@@ -8720,7 +8704,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0504885802978589</c:v>
+                    <c:v>0.0504885802978588</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0353361796078829</c:v>
@@ -8747,7 +8731,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0504885802978589</c:v>
+                    <c:v>0.0504885802978588</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0353361796078829</c:v>
@@ -9237,7 +9221,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0342543790468554</c:v>
+                    <c:v>0.0342543790468561</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0166747886549001</c:v>
@@ -9264,7 +9248,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0342543790468554</c:v>
+                    <c:v>0.0342543790468561</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0166747886549001</c:v>
@@ -9326,7 +9310,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.981967703124733</c:v>
+                  <c:v>0.981967703124734</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0019112109645</c:v>
@@ -9754,7 +9738,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0146555405960279</c:v>
+                    <c:v>0.0146555405960281</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0464049104046084</c:v>
@@ -9781,7 +9765,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0146555405960279</c:v>
+                    <c:v>0.0146555405960281</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0464049104046084</c:v>
@@ -10360,7 +10344,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.516932115777767</c:v>
+                  <c:v>0.516932115777766</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.930517555795611</c:v>
@@ -10788,7 +10772,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.275964872857532</c:v>
+                    <c:v>0.275964872857533</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.122853747125151</c:v>
@@ -10815,7 +10799,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.275964872857532</c:v>
+                    <c:v>0.275964872857533</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.122853747125151</c:v>
@@ -10877,7 +10861,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.33073506750964</c:v>
+                  <c:v>1.33073506750965</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.33964412385006</c:v>
@@ -11317,7 +11301,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0733210437948141</c:v>
+                    <c:v>0.073321043794814</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0740178985657897</c:v>
@@ -11344,7 +11328,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0733210437948141</c:v>
+                    <c:v>0.073321043794814</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.0740178985657897</c:v>
@@ -11834,22 +11818,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0244367953201911</c:v>
+                    <c:v>0.024436795320191</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0984103062929242</c:v>
+                    <c:v>0.0984103062929241</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0746314289369661</c:v>
+                    <c:v>0.0746314289369667</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.150182289356364</c:v>
+                    <c:v>0.150182289356365</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.106414638114147</c:v>
+                    <c:v>0.106414638114149</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.115383181216203</c:v>
+                    <c:v>0.115383181216204</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -11861,22 +11845,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.0244367953201911</c:v>
+                    <c:v>0.024436795320191</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0984103062929242</c:v>
+                    <c:v>0.0984103062929241</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0746314289369661</c:v>
+                    <c:v>0.0746314289369667</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.150182289356364</c:v>
+                    <c:v>0.150182289356365</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.106414638114147</c:v>
+                    <c:v>0.106414638114149</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.115383181216203</c:v>
+                    <c:v>0.115383181216204</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -11987,10 +11971,10 @@
                     <c:v>0.106586872253459</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0339258508793339</c:v>
+                    <c:v>0.0339258508793342</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0298230913285419</c:v>
+                    <c:v>0.0298230913285418</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.0241817266394881</c:v>
@@ -11999,7 +11983,7 @@
                     <c:v>0.0392949695424352</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0606245247445786</c:v>
+                    <c:v>0.060624524744579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12014,10 +11998,10 @@
                     <c:v>0.106586872253459</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0339258508793339</c:v>
+                    <c:v>0.0339258508793342</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0298230913285419</c:v>
+                    <c:v>0.0298230913285418</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.0241817266394881</c:v>
@@ -12026,7 +12010,7 @@
                     <c:v>0.0392949695424352</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0606245247445786</c:v>
+                    <c:v>0.060624524744579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12079,16 +12063,16 @@
                   <c:v>0.498271152131353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.636824313328217</c:v>
+                  <c:v>0.636824313328218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.591205692970519</c:v>
+                  <c:v>0.591205692970518</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.493155981598263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.579265739299608</c:v>
+                  <c:v>0.579265739299607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13195,8 +13179,8 @@
   <sheetPr/>
   <dimension ref="A1:CK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AV10" sqref="AV10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16696,8 +16680,8 @@
       <c r="AO14" s="23">
         <v>2050675</v>
       </c>
-      <c r="AP14" s="22">
-        <v>9689757</v>
+      <c r="AP14" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="AQ14" s="43">
         <v>2152844</v>
@@ -16850,7 +16834,7 @@
     <row r="17" ht="14.25"/>
     <row r="18" spans="1:89">
       <c r="A18" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>1</v>
@@ -17418,7 +17402,7 @@
       </c>
       <c r="AP20" s="19">
         <f t="shared" si="1"/>
-        <v>0.54672985717361</v>
+        <v>0.586085544854595</v>
       </c>
       <c r="AQ20" s="42">
         <f t="shared" si="1"/>
@@ -17775,7 +17759,7 @@
       </c>
       <c r="AP21" s="25">
         <f t="shared" si="6"/>
-        <v>1.07350599789015</v>
+        <v>1.15078102910033</v>
       </c>
       <c r="AQ21" s="30">
         <f t="shared" si="6"/>
@@ -18132,7 +18116,7 @@
       </c>
       <c r="AP22" s="25">
         <f t="shared" si="10"/>
-        <v>0.909907772488875</v>
+        <v>0.975406383261107</v>
       </c>
       <c r="AQ22" s="30">
         <f t="shared" si="10"/>
@@ -18489,7 +18473,7 @@
       </c>
       <c r="AP23" s="25">
         <f t="shared" si="16"/>
-        <v>0.765006881883482</v>
+        <v>0.820074977254848</v>
       </c>
       <c r="AQ23" s="30">
         <f t="shared" si="16"/>
@@ -18846,7 +18830,7 @@
       </c>
       <c r="AP24" s="25">
         <f t="shared" si="20"/>
-        <v>0.618203296171656</v>
+        <v>0.662703912935596</v>
       </c>
       <c r="AQ24" s="30">
         <f t="shared" si="20"/>
@@ -19203,7 +19187,7 @@
       </c>
       <c r="AP25" s="25">
         <f t="shared" si="24"/>
-        <v>0.575238344904668</v>
+        <v>0.616646181603452</v>
       </c>
       <c r="AQ25" s="30">
         <f t="shared" si="24"/>
@@ -19560,7 +19544,7 @@
       </c>
       <c r="AP26" s="25">
         <f t="shared" si="28"/>
-        <v>0.952753939885583</v>
+        <v>1.0213367802097</v>
       </c>
       <c r="AQ26" s="30">
         <f t="shared" si="28"/>
@@ -19917,7 +19901,7 @@
       </c>
       <c r="AP27" s="25">
         <f t="shared" si="32"/>
-        <v>1.40759532237373</v>
+        <v>1.5089193696371</v>
       </c>
       <c r="AQ27" s="30">
         <f t="shared" si="32"/>
@@ -20274,7 +20258,7 @@
       </c>
       <c r="AP28" s="25">
         <f t="shared" si="36"/>
-        <v>1.25522773510067</v>
+        <v>1.34558378583203</v>
       </c>
       <c r="AQ28" s="30">
         <f t="shared" si="36"/>
@@ -20631,7 +20615,7 @@
       </c>
       <c r="AP29" s="25">
         <f t="shared" si="40"/>
-        <v>1.08323568877531</v>
+        <v>1.16121110001904</v>
       </c>
       <c r="AQ29" s="30">
         <f t="shared" si="40"/>
@@ -20988,7 +20972,7 @@
       </c>
       <c r="AP30" s="25">
         <f t="shared" si="44"/>
-        <v>1.07394434984649</v>
+        <v>1.15125093529221</v>
       </c>
       <c r="AQ30" s="30">
         <f t="shared" si="44"/>
@@ -21343,9 +21327,9 @@
         <f t="shared" si="48"/>
         <v>0.969427085417966</v>
       </c>
-      <c r="AP31" s="22">
+      <c r="AP31" s="22" t="e">
         <f t="shared" si="48"/>
-        <v>1.73865081350578</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ31" s="43">
         <f t="shared" si="48"/>
@@ -21539,7 +21523,7 @@
     <row r="34" ht="14.25"/>
     <row r="35" spans="1:85">
       <c r="A35" s="44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>1</v>
@@ -21945,7 +21929,7 @@
       </c>
       <c r="F37" s="19">
         <f>F20/$BR$20</f>
-        <v>0.501515330208438</v>
+        <v>0.501515330208439</v>
       </c>
       <c r="G37" s="42">
         <f>G20/$BS$20</f>
@@ -22025,7 +22009,7 @@
       </c>
       <c r="Z37" s="19">
         <f>Z20/$BR$20</f>
-        <v>1.22706316905825</v>
+        <v>1.22706316905826</v>
       </c>
       <c r="AA37" s="42">
         <f>AA20/$BS$20</f>
@@ -22061,7 +22045,7 @@
       </c>
       <c r="AI37" s="42">
         <f>AI20/$BS$20</f>
-        <v>0.669556402149411</v>
+        <v>0.669556402149412</v>
       </c>
       <c r="AJ37" s="42">
         <f>AJ20/$BT$20</f>
@@ -22077,7 +22061,7 @@
       </c>
       <c r="AM37" s="42">
         <f>AM20/$BS$20</f>
-        <v>1.29808222416702</v>
+        <v>1.29808222416703</v>
       </c>
       <c r="AN37" s="42">
         <f>AN20/$BT$20</f>
@@ -22089,19 +22073,19 @@
       </c>
       <c r="AP37" s="19">
         <f>AP20/$BR$20</f>
-        <v>0.565477782057079</v>
+        <v>0.606183016441429</v>
       </c>
       <c r="AQ37" s="42">
         <f>AQ20/$BS$20</f>
-        <v>0.62042002018557</v>
+        <v>0.620420020185571</v>
       </c>
       <c r="AR37" s="42">
         <f>AR20/$BT$20</f>
-        <v>0.681954389887235</v>
+        <v>0.681954389887234</v>
       </c>
       <c r="AS37" s="20">
         <f>AS20/$BU$20</f>
-        <v>0.711977654951427</v>
+        <v>0.711977654951426</v>
       </c>
       <c r="AT37" s="19">
         <f>AT20/$BR$20</f>
@@ -22129,7 +22113,7 @@
       </c>
       <c r="AZ37" s="42">
         <f>AZ20/$BT$20</f>
-        <v>0.578993211572382</v>
+        <v>0.578993211572381</v>
       </c>
       <c r="BA37" s="20">
         <f>BA20/$BU$20</f>
@@ -22141,7 +22125,7 @@
       </c>
       <c r="BC37" s="42">
         <f>BC20/$BS$20</f>
-        <v>0.403159512390543</v>
+        <v>0.403159512390544</v>
       </c>
       <c r="BD37" s="42">
         <f>BD20/$BT$20</f>
@@ -22157,7 +22141,7 @@
       </c>
       <c r="BG37" s="42">
         <f>BG20/$BS$20</f>
-        <v>0.414575788990979</v>
+        <v>0.41457578899098</v>
       </c>
       <c r="BH37" s="42">
         <f>BH20/$BT$20</f>
@@ -22181,7 +22165,7 @@
       </c>
       <c r="BM37" s="20">
         <f>BM20/$BU$20</f>
-        <v>1.65067109695121</v>
+        <v>1.6506710969512</v>
       </c>
       <c r="BN37" s="19">
         <f>BN20/$BR$20</f>
@@ -22410,7 +22394,7 @@
       </c>
       <c r="AK38" s="26">
         <f>AK21/$BU$21</f>
-        <v>0.978245600473531</v>
+        <v>0.978245600473529</v>
       </c>
       <c r="AL38" s="25">
         <f>AL21/$BR$21</f>
@@ -22422,15 +22406,15 @@
       </c>
       <c r="AN38" s="30">
         <f>AN21/$BT$21</f>
-        <v>0.938775023413738</v>
+        <v>0.93877502341374</v>
       </c>
       <c r="AO38" s="26">
         <f>AO21/$BU$21</f>
-        <v>1.07554220890275</v>
+        <v>1.07554220890274</v>
       </c>
       <c r="AP38" s="25">
         <f>AP21/$BR$21</f>
-        <v>1.09262426933269</v>
+        <v>1.17127550619548</v>
       </c>
       <c r="AQ38" s="30">
         <f>AQ21/$BS$21</f>
@@ -22438,7 +22422,7 @@
       </c>
       <c r="AR38" s="30">
         <f>AR21/$BT$21</f>
-        <v>0.815074319596836</v>
+        <v>0.815074319596837</v>
       </c>
       <c r="AS38" s="26">
         <f>AS21/$BU$21</f>
@@ -22458,7 +22442,7 @@
       </c>
       <c r="AW38" s="26">
         <f>AW21/$BU$21</f>
-        <v>1.56128966090926</v>
+        <v>1.56128966090925</v>
       </c>
       <c r="AX38" s="25">
         <f>AX21/$BR$21</f>
@@ -22486,11 +22470,11 @@
       </c>
       <c r="BD38" s="30">
         <f>BD21/$BT$21</f>
-        <v>0.45451059769138</v>
+        <v>0.454510597691381</v>
       </c>
       <c r="BE38" s="26">
         <f>BE21/$BU$21</f>
-        <v>0.584538019560365</v>
+        <v>0.584538019560364</v>
       </c>
       <c r="BF38" s="25">
         <f>BF21/$BR$21</f>
@@ -22498,15 +22482,15 @@
       </c>
       <c r="BG38" s="30">
         <f>BG21/$BS$21</f>
-        <v>0.998460064828444</v>
+        <v>0.998460064828443</v>
       </c>
       <c r="BH38" s="30">
         <f>BH21/$BT$21</f>
-        <v>0.949944878742836</v>
+        <v>0.949944878742838</v>
       </c>
       <c r="BI38" s="26">
         <f>BI21/$BU$21</f>
-        <v>0.760425881321026</v>
+        <v>0.760425881321024</v>
       </c>
       <c r="BJ38" s="25">
         <f>BJ21/$BR$21</f>
@@ -22534,7 +22518,7 @@
       </c>
       <c r="BP38" s="30">
         <f>BP21/$BT$21</f>
-        <v>1.1031495486217</v>
+        <v>1.10314954862171</v>
       </c>
       <c r="BQ38" s="30">
         <f>BQ21/$BU$21</f>
@@ -22751,7 +22735,7 @@
       </c>
       <c r="AK39" s="26">
         <f>AK22/$BU$22</f>
-        <v>1.42209493356999</v>
+        <v>1.42209493357</v>
       </c>
       <c r="AL39" s="25">
         <f>AL22/$BR$22</f>
@@ -22759,7 +22743,7 @@
       </c>
       <c r="AM39" s="30">
         <f>AM22/$BS$22</f>
-        <v>0.99631340355819</v>
+        <v>0.996313403558186</v>
       </c>
       <c r="AN39" s="30">
         <f>AN22/$BT$22</f>
@@ -22771,11 +22755,11 @@
       </c>
       <c r="AP39" s="25">
         <f>AP22/$BR$22</f>
-        <v>0.970412419058658</v>
+        <v>1.040266383654</v>
       </c>
       <c r="AQ39" s="30">
         <f>AQ22/$BS$22</f>
-        <v>0.866955357427636</v>
+        <v>0.866955357427632</v>
       </c>
       <c r="AR39" s="30">
         <f>AR22/$BT$22</f>
@@ -22791,7 +22775,7 @@
       </c>
       <c r="AU39" s="30">
         <f>AU22/$BS$22</f>
-        <v>1.75926055834625</v>
+        <v>1.75926055834624</v>
       </c>
       <c r="AV39" s="30">
         <f>AV22/$BT$22</f>
@@ -22799,7 +22783,7 @@
       </c>
       <c r="AW39" s="26">
         <f>AW22/$BU$22</f>
-        <v>1.47284659746602</v>
+        <v>1.47284659746603</v>
       </c>
       <c r="AX39" s="25">
         <f>AX22/$BR$22</f>
@@ -22807,11 +22791,11 @@
       </c>
       <c r="AY39" s="30">
         <f>AY22/$BS$22</f>
-        <v>1.83661762180519</v>
+        <v>1.83661762180518</v>
       </c>
       <c r="AZ39" s="30">
         <f>AZ22/$BT$22</f>
-        <v>1.69800470507617</v>
+        <v>1.69800470507616</v>
       </c>
       <c r="BA39" s="26">
         <f>BA22/$BU$22</f>
@@ -22823,15 +22807,15 @@
       </c>
       <c r="BC39" s="30">
         <f>BC22/$BS$22</f>
-        <v>0.548398020046971</v>
+        <v>0.548398020046969</v>
       </c>
       <c r="BD39" s="30">
         <f>BD22/$BT$22</f>
-        <v>0.837664778314983</v>
+        <v>0.837664778314982</v>
       </c>
       <c r="BE39" s="26">
         <f>BE22/$BU$22</f>
-        <v>0.723668409212815</v>
+        <v>0.723668409212816</v>
       </c>
       <c r="BF39" s="25">
         <f>BF22/$BR$22</f>
@@ -22839,7 +22823,7 @@
       </c>
       <c r="BG39" s="30">
         <f>BG22/$BS$22</f>
-        <v>0.75950983467481</v>
+        <v>0.759509834674807</v>
       </c>
       <c r="BH39" s="30">
         <f>BH22/$BT$22</f>
@@ -23084,7 +23068,7 @@
       </c>
       <c r="AI40" s="30">
         <f>AI23/$BS$23</f>
-        <v>1.64423969311027</v>
+        <v>1.64423969311026</v>
       </c>
       <c r="AJ40" s="30">
         <f>AJ23/$BT$23</f>
@@ -23112,11 +23096,11 @@
       </c>
       <c r="AP40" s="25">
         <f>AP23/$BR$23</f>
-        <v>0.77861162020659</v>
+        <v>0.834659036215745</v>
       </c>
       <c r="AQ40" s="30">
         <f>AQ23/$BS$23</f>
-        <v>0.971789850687074</v>
+        <v>0.971789850687073</v>
       </c>
       <c r="AR40" s="30">
         <f>AR23/$BT$23</f>
@@ -23132,7 +23116,7 @@
       </c>
       <c r="AU40" s="30">
         <f>AU23/$BS$23</f>
-        <v>1.72617668456214</v>
+        <v>1.72617668456213</v>
       </c>
       <c r="AV40" s="30">
         <f>AV23/$BT$23</f>
@@ -23180,7 +23164,7 @@
       </c>
       <c r="BG40" s="30">
         <f>BG23/$BS$23</f>
-        <v>0.819331535391233</v>
+        <v>0.819331535391232</v>
       </c>
       <c r="BH40" s="30">
         <f>BH23/$BT$23</f>
@@ -23421,7 +23405,7 @@
       </c>
       <c r="AH41" s="25">
         <f>AH24/$BR$24</f>
-        <v>1.5321443948563</v>
+        <v>1.53214439485629</v>
       </c>
       <c r="AI41" s="30">
         <f>AI24/$BS$24</f>
@@ -23433,15 +23417,15 @@
       </c>
       <c r="AK41" s="26">
         <f>AK24/$BU$24</f>
-        <v>1.91472268632523</v>
+        <v>1.91472268632524</v>
       </c>
       <c r="AL41" s="25">
         <f>AL24/$BR$24</f>
-        <v>0.935702594650052</v>
+        <v>0.93570259465005</v>
       </c>
       <c r="AM41" s="30">
         <f>AM24/$BS$24</f>
-        <v>0.823058650606962</v>
+        <v>0.823058650606961</v>
       </c>
       <c r="AN41" s="30">
         <f>AN24/$BT$24</f>
@@ -23449,15 +23433,15 @@
       </c>
       <c r="AO41" s="26">
         <f>AO24/$BU$24</f>
-        <v>0.987942967258195</v>
+        <v>0.987942967258199</v>
       </c>
       <c r="AP41" s="25">
         <f>AP24/$BR$24</f>
-        <v>0.551522616873321</v>
+        <v>0.591223305566041</v>
       </c>
       <c r="AQ41" s="30">
         <f>AQ24/$BS$24</f>
-        <v>0.910954899768489</v>
+        <v>0.910954899768487</v>
       </c>
       <c r="AR41" s="30">
         <f>AR24/$BT$24</f>
@@ -23469,7 +23453,7 @@
       </c>
       <c r="AT41" s="25">
         <f>AT24/$BR$24</f>
-        <v>0.991247838844847</v>
+        <v>0.991247838844844</v>
       </c>
       <c r="AU41" s="30">
         <f>AU24/$BS$24</f>
@@ -23497,15 +23481,15 @@
       </c>
       <c r="BA41" s="26">
         <f>BA24/$BU$24</f>
-        <v>1.5617446037105</v>
+        <v>1.56174460371051</v>
       </c>
       <c r="BB41" s="25">
         <f>BB24/$BR$24</f>
-        <v>0.593413388547209</v>
+        <v>0.593413388547207</v>
       </c>
       <c r="BC41" s="30">
         <f>BC24/$BS$24</f>
-        <v>0.467512278677575</v>
+        <v>0.467512278677574</v>
       </c>
       <c r="BD41" s="30">
         <f>BD24/$BT$24</f>
@@ -23513,15 +23497,15 @@
       </c>
       <c r="BE41" s="26">
         <f>BE24/$BU$24</f>
-        <v>0.537318447466936</v>
+        <v>0.537318447466938</v>
       </c>
       <c r="BF41" s="25">
         <f>BF24/$BR$24</f>
-        <v>0.972120604294064</v>
+        <v>0.972120604294061</v>
       </c>
       <c r="BG41" s="30">
         <f>BG24/$BS$24</f>
-        <v>0.762105520517145</v>
+        <v>0.762105520517143</v>
       </c>
       <c r="BH41" s="30">
         <f>BH24/$BT$24</f>
@@ -23529,7 +23513,7 @@
       </c>
       <c r="BI41" s="26">
         <f>BI24/$BU$24</f>
-        <v>0.738763268156525</v>
+        <v>0.738763268156528</v>
       </c>
       <c r="BJ41" s="25">
         <f>BJ24/$BR$24</f>
@@ -23537,7 +23521,7 @@
       </c>
       <c r="BK41" s="30">
         <f>BK24/$BS$24</f>
-        <v>0.950354586676948</v>
+        <v>0.950354586676946</v>
       </c>
       <c r="BL41" s="30">
         <f>BL24/$BT$24</f>
@@ -23549,11 +23533,11 @@
       </c>
       <c r="BN41" s="25">
         <f>BN24/$BR$24</f>
-        <v>0.994722766474661</v>
+        <v>0.994722766474658</v>
       </c>
       <c r="BO41" s="30">
         <f>BO24/$BS$24</f>
-        <v>1.23888960150358</v>
+        <v>1.23888960150357</v>
       </c>
       <c r="BP41" s="30">
         <f>BP24/$BT$24</f>
@@ -23778,7 +23762,7 @@
       </c>
       <c r="AL42" s="25">
         <f>AL25/$BR$25</f>
-        <v>0.844810352021546</v>
+        <v>0.844810352021547</v>
       </c>
       <c r="AM42" s="30">
         <f>AM25/$BS$25</f>
@@ -23794,7 +23778,7 @@
       </c>
       <c r="AP42" s="25">
         <f>AP25/$BR$25</f>
-        <v>0.582373932338238</v>
+        <v>0.624295415670311</v>
       </c>
       <c r="AQ42" s="30">
         <f>AQ25/$BS$25</f>
@@ -23802,7 +23786,7 @@
       </c>
       <c r="AR42" s="30">
         <f>AR25/$BT$25</f>
-        <v>0.810167770082185</v>
+        <v>0.810167770082183</v>
       </c>
       <c r="AS42" s="26">
         <f>AS25/$BU$25</f>
@@ -23818,7 +23802,7 @@
       </c>
       <c r="AV42" s="30">
         <f>AV25/$BT$25</f>
-        <v>0.711990081527958</v>
+        <v>0.711990081527956</v>
       </c>
       <c r="AW42" s="26">
         <f>AW25/$BU$25</f>
@@ -23826,7 +23810,7 @@
       </c>
       <c r="AX42" s="25">
         <f>AX25/$BR$25</f>
-        <v>1.85398756885126</v>
+        <v>1.85398756885127</v>
       </c>
       <c r="AY42" s="30">
         <f>AY25/$BS$25</f>
@@ -23846,11 +23830,11 @@
       </c>
       <c r="BC42" s="30">
         <f>BC25/$BS$25</f>
-        <v>0.450832815335115</v>
+        <v>0.450832815335116</v>
       </c>
       <c r="BD42" s="30">
         <f>BD25/$BT$25</f>
-        <v>0.460031400355044</v>
+        <v>0.460031400355043</v>
       </c>
       <c r="BE42" s="26">
         <f>BE25/$BU$25</f>
@@ -23866,7 +23850,7 @@
       </c>
       <c r="BH42" s="30">
         <f>BH25/$BT$25</f>
-        <v>0.790846807187043</v>
+        <v>0.790846807187041</v>
       </c>
       <c r="BI42" s="26">
         <f>BI25/$BU$25</f>
@@ -24115,11 +24099,11 @@
       </c>
       <c r="AK43" s="26">
         <f>AK26/$BU$26</f>
-        <v>0.316917221723016</v>
+        <v>0.316917221723018</v>
       </c>
       <c r="AL43" s="25">
         <f>AL26/$BR$26</f>
-        <v>0.835780793826627</v>
+        <v>0.835780793826626</v>
       </c>
       <c r="AM43" s="30">
         <f>AM26/$BS$26</f>
@@ -24131,11 +24115,11 @@
       </c>
       <c r="AO43" s="26">
         <f>AO26/$BU$26</f>
-        <v>0.864294673402539</v>
+        <v>0.864294673402543</v>
       </c>
       <c r="AP43" s="25">
         <f>AP26/$BR$26</f>
-        <v>0.834998007334853</v>
+        <v>0.895104329240881</v>
       </c>
       <c r="AQ43" s="30">
         <f>AQ26/$BS$26</f>
@@ -24147,7 +24131,7 @@
       </c>
       <c r="AS43" s="26">
         <f>AS26/$BU$26</f>
-        <v>0.880512306933065</v>
+        <v>0.880512306933069</v>
       </c>
       <c r="AT43" s="25">
         <f>AT26/$BR$26</f>
@@ -24163,15 +24147,15 @@
       </c>
       <c r="AW43" s="26">
         <f>AW26/$BU$26</f>
-        <v>0.39341039929351</v>
+        <v>0.393410399293512</v>
       </c>
       <c r="AX43" s="25">
         <f>AX26/$BR$26</f>
-        <v>0.447118415554374</v>
+        <v>0.447118415554373</v>
       </c>
       <c r="AY43" s="30">
         <f>AY26/$BS$26</f>
-        <v>0.420091874291366</v>
+        <v>0.420091874291365</v>
       </c>
       <c r="AZ43" s="30">
         <f>AZ26/$BT$26</f>
@@ -24179,7 +24163,7 @@
       </c>
       <c r="BA43" s="26">
         <f>BA26/$BU$26</f>
-        <v>0.52041858266441</v>
+        <v>0.520418582664412</v>
       </c>
       <c r="BB43" s="25">
         <f>BB26/$BR$26</f>
@@ -24207,19 +24191,19 @@
       </c>
       <c r="BH43" s="30">
         <f>BH26/$BT$26</f>
-        <v>1.09208028949092</v>
+        <v>1.09208028949093</v>
       </c>
       <c r="BI43" s="26">
         <f>BI26/$BU$26</f>
-        <v>0.730250457013222</v>
+        <v>0.730250457013225</v>
       </c>
       <c r="BJ43" s="25">
         <f>BJ26/$BR$26</f>
-        <v>0.355720048452108</v>
+        <v>0.355720048452107</v>
       </c>
       <c r="BK43" s="30">
         <f>BK26/$BS$26</f>
-        <v>0.924198559504015</v>
+        <v>0.924198559504014</v>
       </c>
       <c r="BL43" s="30">
         <f>BL26/$BT$26</f>
@@ -24227,7 +24211,7 @@
       </c>
       <c r="BM43" s="26">
         <f>BM26/$BU$26</f>
-        <v>0.579111828661521</v>
+        <v>0.579111828661524</v>
       </c>
       <c r="BN43" s="25">
         <f>BN26/$BR$26</f>
@@ -24235,7 +24219,7 @@
       </c>
       <c r="BO43" s="30">
         <f>BO26/$BS$26</f>
-        <v>0.578313580732753</v>
+        <v>0.578313580732752</v>
       </c>
       <c r="BP43" s="30">
         <f>BP26/$BT$26</f>
@@ -24243,7 +24227,7 @@
       </c>
       <c r="BQ43" s="30">
         <f>BQ26/$BU$26</f>
-        <v>0.664549565169514</v>
+        <v>0.664549565169517</v>
       </c>
       <c r="BR43" s="25">
         <f t="shared" si="55"/>
@@ -24444,11 +24428,11 @@
       </c>
       <c r="AH44" s="25">
         <f>AH27/$BR$27</f>
-        <v>0.40268449248408</v>
+        <v>0.402684492484081</v>
       </c>
       <c r="AI44" s="30">
         <f>AI27/$BS$27</f>
-        <v>0.546108567219624</v>
+        <v>0.546108567219625</v>
       </c>
       <c r="AJ44" s="30">
         <f>AJ27/$BT$27</f>
@@ -24456,11 +24440,11 @@
       </c>
       <c r="AK44" s="26">
         <f>AK27/$BU$27</f>
-        <v>0.547109120859327</v>
+        <v>0.547109120859328</v>
       </c>
       <c r="AL44" s="25">
         <f>AL27/$BR$27</f>
-        <v>0.899606067964711</v>
+        <v>0.899606067964712</v>
       </c>
       <c r="AM44" s="30">
         <f>AM27/$BS$27</f>
@@ -24472,11 +24456,11 @@
       </c>
       <c r="AO44" s="26">
         <f>AO27/$BU$27</f>
-        <v>0.824058175345343</v>
+        <v>0.824058175345344</v>
       </c>
       <c r="AP44" s="25">
         <f>AP27/$BR$27</f>
-        <v>1.42590824032166</v>
+        <v>1.52855052084014</v>
       </c>
       <c r="AQ44" s="30">
         <f>AQ27/$BS$27</f>
@@ -24504,7 +24488,7 @@
       </c>
       <c r="AW44" s="26">
         <f>AW27/$BU$27</f>
-        <v>0.486968415836032</v>
+        <v>0.486968415836033</v>
       </c>
       <c r="AX44" s="25">
         <f>AX27/$BR$27</f>
@@ -24536,7 +24520,7 @@
       </c>
       <c r="BE44" s="26">
         <f>BE27/$BU$27</f>
-        <v>1.45314107824955</v>
+        <v>1.45314107824956</v>
       </c>
       <c r="BF44" s="25">
         <f>BF27/$BR$27</f>
@@ -24568,11 +24552,11 @@
       </c>
       <c r="BM44" s="26">
         <f>BM27/$BU$27</f>
-        <v>0.555274940919321</v>
+        <v>0.555274940919323</v>
       </c>
       <c r="BN44" s="25">
         <f>BN27/$BR$27</f>
-        <v>0.946560687615965</v>
+        <v>0.946560687615966</v>
       </c>
       <c r="BO44" s="30">
         <f>BO27/$BS$27</f>
@@ -24580,11 +24564,11 @@
       </c>
       <c r="BP44" s="30">
         <f>BP27/$BT$27</f>
-        <v>0.853948491686546</v>
+        <v>0.853948491686547</v>
       </c>
       <c r="BQ44" s="30">
         <f>BQ27/$BU$27</f>
-        <v>0.678540619697393</v>
+        <v>0.678540619697394</v>
       </c>
       <c r="BR44" s="25">
         <f t="shared" si="55"/>
@@ -24793,11 +24777,11 @@
       </c>
       <c r="AJ45" s="30">
         <f>AJ28/$BT$28</f>
-        <v>0.615595351171296</v>
+        <v>0.615595351171298</v>
       </c>
       <c r="AK45" s="26">
         <f>AK28/$BU$28</f>
-        <v>0.627654597786451</v>
+        <v>0.62765459778645</v>
       </c>
       <c r="AL45" s="25">
         <f>AL28/$BR$28</f>
@@ -24809,15 +24793,15 @@
       </c>
       <c r="AN45" s="30">
         <f>AN28/$BT$28</f>
-        <v>0.767746381749965</v>
+        <v>0.767746381749967</v>
       </c>
       <c r="AO45" s="26">
         <f>AO28/$BU$28</f>
-        <v>0.966362096659875</v>
+        <v>0.966362096659874</v>
       </c>
       <c r="AP45" s="25">
         <f>AP28/$BR$28</f>
-        <v>1.31868763626875</v>
+        <v>1.41361177125209</v>
       </c>
       <c r="AQ45" s="30">
         <f>AQ28/$BS$28</f>
@@ -24825,11 +24809,11 @@
       </c>
       <c r="AR45" s="30">
         <f>AR28/$BT$28</f>
-        <v>1.34014363476293</v>
+        <v>1.34014363476294</v>
       </c>
       <c r="AS45" s="26">
         <f>AS28/$BU$28</f>
-        <v>0.986340665742508</v>
+        <v>0.986340665742507</v>
       </c>
       <c r="AT45" s="25">
         <f>AT28/$BR$28</f>
@@ -24841,7 +24825,7 @@
       </c>
       <c r="AV45" s="30">
         <f>AV28/$BT$28</f>
-        <v>0.161367316666608</v>
+        <v>0.161367316666609</v>
       </c>
       <c r="AW45" s="26">
         <f>AW28/$BU$28</f>
@@ -24849,7 +24833,7 @@
       </c>
       <c r="AX45" s="25">
         <f>AX28/$BR$28</f>
-        <v>0.785762988012043</v>
+        <v>0.785762988012044</v>
       </c>
       <c r="AY45" s="30">
         <f>AY28/$BS$28</f>
@@ -24857,7 +24841,7 @@
       </c>
       <c r="AZ45" s="30">
         <f>AZ28/$BT$28</f>
-        <v>0.751451884643449</v>
+        <v>0.751451884643452</v>
       </c>
       <c r="BA45" s="26">
         <f>BA28/$BU$28</f>
@@ -24873,11 +24857,11 @@
       </c>
       <c r="BD45" s="30">
         <f>BD28/$BT$28</f>
-        <v>1.28351295111781</v>
+        <v>1.28351295111782</v>
       </c>
       <c r="BE45" s="26">
         <f>BE28/$BU$28</f>
-        <v>1.55357125174066</v>
+        <v>1.55357125174065</v>
       </c>
       <c r="BF45" s="25">
         <f>BF28/$BR$28</f>
@@ -24905,15 +24889,15 @@
       </c>
       <c r="BL45" s="30">
         <f>BL28/$BT$28</f>
-        <v>0.644534473277254</v>
+        <v>0.644534473277257</v>
       </c>
       <c r="BM45" s="26">
         <f>BM28/$BU$28</f>
-        <v>0.683193275496332</v>
+        <v>0.683193275496331</v>
       </c>
       <c r="BN45" s="25">
         <f>BN28/$BR$28</f>
-        <v>0.963368920328844</v>
+        <v>0.963368920328845</v>
       </c>
       <c r="BO45" s="30">
         <f>BO28/$BS$28</f>
@@ -24921,11 +24905,11 @@
       </c>
       <c r="BP45" s="30">
         <f>BP28/$BT$28</f>
-        <v>0.741535155340124</v>
+        <v>0.741535155340127</v>
       </c>
       <c r="BQ45" s="30">
         <f>BQ28/$BU$28</f>
-        <v>0.707168815907058</v>
+        <v>0.707168815907057</v>
       </c>
       <c r="BR45" s="25">
         <f t="shared" si="55"/>
@@ -25130,7 +25114,7 @@
       </c>
       <c r="AI46" s="30">
         <f>AI29/$BS$29</f>
-        <v>0.573365361586881</v>
+        <v>0.573365361586882</v>
       </c>
       <c r="AJ46" s="30">
         <f>AJ29/$BT$29</f>
@@ -25138,11 +25122,11 @@
       </c>
       <c r="AK46" s="26">
         <f>AK29/$BU$29</f>
-        <v>0.548896676628871</v>
+        <v>0.54889667662887</v>
       </c>
       <c r="AL46" s="25">
         <f>AL29/$BR$29</f>
-        <v>0.940531182897614</v>
+        <v>0.940531182897613</v>
       </c>
       <c r="AM46" s="30">
         <f>AM29/$BS$29</f>
@@ -25154,11 +25138,11 @@
       </c>
       <c r="AO46" s="26">
         <f>AO29/$BU$29</f>
-        <v>0.956685158866594</v>
+        <v>0.956685158866592</v>
       </c>
       <c r="AP46" s="25">
         <f>AP29/$BR$29</f>
-        <v>1.1195171956899</v>
+        <v>1.20010428733848</v>
       </c>
       <c r="AQ46" s="30">
         <f>AQ29/$BS$29</f>
@@ -25170,7 +25154,7 @@
       </c>
       <c r="AS46" s="26">
         <f>AS29/$BU$29</f>
-        <v>0.955345023089595</v>
+        <v>0.955345023089593</v>
       </c>
       <c r="AT46" s="25">
         <f>AT29/$BR$29</f>
@@ -25186,7 +25170,7 @@
       </c>
       <c r="AW46" s="26">
         <f>AW29/$BU$29</f>
-        <v>0.469276972492183</v>
+        <v>0.469276972492182</v>
       </c>
       <c r="AX46" s="25">
         <f>AX29/$BR$29</f>
@@ -25194,7 +25178,7 @@
       </c>
       <c r="AY46" s="30">
         <f>AY29/$BS$29</f>
-        <v>0.419266443146592</v>
+        <v>0.419266443146593</v>
       </c>
       <c r="AZ46" s="30">
         <f>AZ29/$BT$29</f>
@@ -25202,7 +25186,7 @@
       </c>
       <c r="BA46" s="26">
         <f>BA29/$BU$29</f>
-        <v>0.714272799108661</v>
+        <v>0.71427279910866</v>
       </c>
       <c r="BB46" s="25">
         <f>BB29/$BR$29</f>
@@ -25246,11 +25230,11 @@
       </c>
       <c r="BL46" s="30">
         <f>BL29/$BT$29</f>
-        <v>0.799428231767332</v>
+        <v>0.799428231767331</v>
       </c>
       <c r="BM46" s="26">
         <f>BM29/$BU$29</f>
-        <v>0.77293417955084</v>
+        <v>0.772934179550839</v>
       </c>
       <c r="BN46" s="25">
         <f>BN29/$BR$29</f>
@@ -25262,11 +25246,11 @@
       </c>
       <c r="BP46" s="30">
         <f>BP29/$BT$29</f>
-        <v>0.870913795240143</v>
+        <v>0.870913795240142</v>
       </c>
       <c r="BQ46" s="30">
         <f>BQ29/$BU$29</f>
-        <v>0.703127589409131</v>
+        <v>0.70312758940913</v>
       </c>
       <c r="BR46" s="25">
         <f t="shared" si="55"/>
@@ -25475,7 +25459,7 @@
       </c>
       <c r="AJ47" s="30">
         <f>AJ30/$BT$30</f>
-        <v>0.478397292700899</v>
+        <v>0.478397292700898</v>
       </c>
       <c r="AK47" s="26">
         <f>AK30/$BU$30</f>
@@ -25491,7 +25475,7 @@
       </c>
       <c r="AN47" s="30">
         <f>AN30/$BT$30</f>
-        <v>0.813673368579876</v>
+        <v>0.813673368579874</v>
       </c>
       <c r="AO47" s="26">
         <f>AO30/$BU$30</f>
@@ -25499,7 +25483,7 @@
       </c>
       <c r="AP47" s="25">
         <f>AP30/$BR$30</f>
-        <v>1.18434665764819</v>
+        <v>1.26960041972619</v>
       </c>
       <c r="AQ47" s="30">
         <f>AQ30/$BS$30</f>
@@ -25507,7 +25491,7 @@
       </c>
       <c r="AR47" s="30">
         <f>AR30/$BT$30</f>
-        <v>0.940358390814386</v>
+        <v>0.940358390814384</v>
       </c>
       <c r="AS47" s="26">
         <f>AS30/$BU$30</f>
@@ -25539,11 +25523,11 @@
       </c>
       <c r="AZ47" s="30">
         <f>AZ30/$BT$30</f>
-        <v>0.348776697839156</v>
+        <v>0.348776697839155</v>
       </c>
       <c r="BA47" s="26">
         <f>BA30/$BU$30</f>
-        <v>0.862520851035863</v>
+        <v>0.862520851035862</v>
       </c>
       <c r="BB47" s="25">
         <f>BB30/$BR$30</f>
@@ -25555,7 +25539,7 @@
       </c>
       <c r="BD47" s="30">
         <f>BD30/$BT$30</f>
-        <v>1.14661748515606</v>
+        <v>1.14661748515605</v>
       </c>
       <c r="BE47" s="26">
         <f>BE30/$BU$30</f>
@@ -25571,7 +25555,7 @@
       </c>
       <c r="BH47" s="30">
         <f>BH30/$BT$30</f>
-        <v>1.03781682202883</v>
+        <v>1.03781682202882</v>
       </c>
       <c r="BI47" s="26">
         <f>BI30/$BU$30</f>
@@ -25587,7 +25571,7 @@
       </c>
       <c r="BL47" s="30">
         <f>BL30/$BT$30</f>
-        <v>0.584894836571254</v>
+        <v>0.584894836571252</v>
       </c>
       <c r="BM47" s="26">
         <f>BM30/$BU$30</f>
@@ -25599,11 +25583,11 @@
       </c>
       <c r="BO47" s="30">
         <f>BO30/$BS$30</f>
-        <v>0.587191213446264</v>
+        <v>0.587191213446265</v>
       </c>
       <c r="BP47" s="30">
         <f>BP30/$BT$30</f>
-        <v>0.709070731088915</v>
+        <v>0.709070731088913</v>
       </c>
       <c r="BQ47" s="30">
         <f>BQ30/$BU$30</f>
@@ -25808,7 +25792,7 @@
       </c>
       <c r="AH48" s="22">
         <f>AH31/$BR$31</f>
-        <v>0.408901610918058</v>
+        <v>0.408901610918056</v>
       </c>
       <c r="AI48" s="43">
         <f>AI31/$BS$31</f>
@@ -25824,7 +25808,7 @@
       </c>
       <c r="AL48" s="22">
         <f>AL31/$BR$31</f>
-        <v>1.28608741684188</v>
+        <v>1.28608741684187</v>
       </c>
       <c r="AM48" s="43">
         <f>AM31/$BS$31</f>
@@ -25838,9 +25822,9 @@
         <f>AO31/$BU$31</f>
         <v>0.978592582696598</v>
       </c>
-      <c r="AP48" s="22">
+      <c r="AP48" s="22" t="e">
         <f>AP31/$BR$31</f>
-        <v>1.62887892420656</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ48" s="43">
         <f>AQ31/$BS$31</f>
@@ -25856,7 +25840,7 @@
       </c>
       <c r="AT48" s="22">
         <f>AT31/$BR$31</f>
-        <v>0.513280479285129</v>
+        <v>0.513280479285127</v>
       </c>
       <c r="AU48" s="43">
         <f>AU31/$BS$31</f>
@@ -25872,7 +25856,7 @@
       </c>
       <c r="AX48" s="22">
         <f>AX31/$BR$31</f>
-        <v>0.730491440330353</v>
+        <v>0.73049144033035</v>
       </c>
       <c r="AY48" s="43">
         <f>AY31/$BS$31</f>
@@ -25888,7 +25872,7 @@
       </c>
       <c r="BB48" s="22">
         <f>BB31/$BR$31</f>
-        <v>1.13756141945423</v>
+        <v>1.13756141945422</v>
       </c>
       <c r="BC48" s="43">
         <f>BC31/$BS$31</f>
@@ -25920,7 +25904,7 @@
       </c>
       <c r="BJ48" s="22">
         <f>BJ31/$BR$31</f>
-        <v>0.617871930453404</v>
+        <v>0.617871930453401</v>
       </c>
       <c r="BK48" s="43">
         <f>BK31/$BS$31</f>
@@ -25936,11 +25920,11 @@
       </c>
       <c r="BN48" s="22">
         <f>BN31/$BR$31</f>
-        <v>0.856798724404034</v>
+        <v>0.85679872440403</v>
       </c>
       <c r="BO48" s="43">
         <f>BO31/$BS$31</f>
-        <v>0.574778413700797</v>
+        <v>0.574778413700796</v>
       </c>
       <c r="BP48" s="43">
         <f>BP31/$BT$31</f>
@@ -26018,7 +26002,7 @@
     <row r="51" ht="14.25"/>
     <row r="52" ht="14.25" spans="1:45">
       <c r="A52" s="45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>1</v>
@@ -26072,7 +26056,7 @@
         <v>17</v>
       </c>
       <c r="S52" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T52" s="56" t="s">
         <v>20</v>
@@ -26084,7 +26068,7 @@
         <v>22</v>
       </c>
       <c r="X52" s="45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y52" s="19" t="s">
         <v>1</v>
@@ -26138,7 +26122,7 @@
         <v>17</v>
       </c>
       <c r="AP52" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ52" s="62" t="s">
         <v>20</v>
@@ -26156,7 +26140,7 @@
       </c>
       <c r="B53" s="46">
         <f>AVERAGE(B37:E37)</f>
-        <v>1.2419973701357</v>
+        <v>1.24199737013569</v>
       </c>
       <c r="C53" s="47">
         <f>AVERAGE(F37,G37,H37,I37)</f>
@@ -26168,7 +26152,7 @@
       </c>
       <c r="E53" s="47">
         <f>AVERAGE(N37:Q37)</f>
-        <v>0.981967703124733</v>
+        <v>0.981967703124734</v>
       </c>
       <c r="F53" s="47">
         <f>AVERAGE(R37:U37)</f>
@@ -26176,11 +26160,11 @@
       </c>
       <c r="G53" s="47">
         <f>AVERAGE(V37:Y37)</f>
-        <v>0.516932115777767</v>
+        <v>0.516932115777766</v>
       </c>
       <c r="H53" s="47">
         <f>AVERAGE(Z37:AC37)</f>
-        <v>1.33073506750964</v>
+        <v>1.33073506750965</v>
       </c>
       <c r="I53" s="47">
         <f>AVERAGE(AD37:AG37)</f>
@@ -26192,11 +26176,11 @@
       </c>
       <c r="K53" s="47">
         <f>AVERAGE(AL37:AO37)</f>
-        <v>1.13603331284448</v>
+        <v>1.13603331284449</v>
       </c>
       <c r="L53" s="47">
         <f>AVERAGE(AP37:AS37)</f>
-        <v>0.644957461770327</v>
+        <v>0.655133770366415</v>
       </c>
       <c r="M53" s="47">
         <f>AVERAGE(AT37:AW37)</f>
@@ -26204,7 +26188,7 @@
       </c>
       <c r="N53" s="47">
         <f>AVERAGE(AX37,AY37,AZ37,BA37)</f>
-        <v>0.861333233004183</v>
+        <v>0.861333233004184</v>
       </c>
       <c r="O53" s="47">
         <f>AVERAGE(BB37:BE37)</f>
@@ -26243,23 +26227,23 @@
       </c>
       <c r="Y53" s="46">
         <f t="shared" ref="Y53:Y64" si="64">STDEV(B37:E37)/SQRT(4)</f>
-        <v>0.0789797362281299</v>
+        <v>0.0789797362281296</v>
       </c>
       <c r="Z53" s="47">
         <f t="shared" ref="Z53:Z64" si="65">STDEV(F37:I37)/SQRT(4)</f>
-        <v>0.0328537720824515</v>
+        <v>0.032853772082452</v>
       </c>
       <c r="AA53" s="47">
         <f t="shared" ref="AA53:AA64" si="66">STDEV(J37:M37)/SQRT(4)</f>
-        <v>0.0504885802978589</v>
+        <v>0.0504885802978588</v>
       </c>
       <c r="AB53" s="47">
         <f t="shared" ref="AB53:AB64" si="67">STDEV(N37:Q37)/SQRT(4)</f>
-        <v>0.0342543790468554</v>
+        <v>0.0342543790468561</v>
       </c>
       <c r="AC53" s="47">
         <f t="shared" ref="AC53:AC64" si="68">STDEV(R37:U37)/SQRT(4)</f>
-        <v>0.0146555405960279</v>
+        <v>0.0146555405960281</v>
       </c>
       <c r="AD53" s="47">
         <f t="shared" ref="AD53:AD64" si="69">STDEV(V37:Y37)/SQRT(4)</f>
@@ -26267,23 +26251,23 @@
       </c>
       <c r="AE53" s="47">
         <f t="shared" ref="AE53:AE64" si="70">STDEV(Z37:AC37)/SQRT(4)</f>
-        <v>0.275964872857532</v>
+        <v>0.275964872857533</v>
       </c>
       <c r="AF53" s="47">
         <f t="shared" ref="AF53:AF64" si="71">STDEV(AD37:AG37)/SQRT(4)</f>
-        <v>0.0733210437948141</v>
+        <v>0.073321043794814</v>
       </c>
       <c r="AG53" s="47">
         <f t="shared" ref="AG53:AG64" si="72">STDEV(AH37:AK37)/SQRT(4)</f>
-        <v>0.0244367953201911</v>
+        <v>0.024436795320191</v>
       </c>
       <c r="AH53" s="47">
         <f t="shared" ref="AH53:AH64" si="73">STDEV(AL37:AO37)/SQRT(4)</f>
-        <v>0.0656856270178253</v>
+        <v>0.065685627017826</v>
       </c>
       <c r="AI53" s="60">
         <f t="shared" ref="AI53:AI64" si="74">STDEV(AP37:AS37)/SQRT(4)</f>
-        <v>0.0326338072543456</v>
+        <v>0.0250861741596795</v>
       </c>
       <c r="AJ53" s="47">
         <f t="shared" ref="AJ53:AJ64" si="75">STDEV(AT37:AW37)/SQRT(4)</f>
@@ -26291,7 +26275,7 @@
       </c>
       <c r="AK53" s="47">
         <f t="shared" ref="AK53:AK64" si="76">STDEV(AX37:BA37)/SQRT(4)</f>
-        <v>0.113953419483396</v>
+        <v>0.113953419483397</v>
       </c>
       <c r="AL53" s="47">
         <f t="shared" ref="AL53:AL64" si="77">STDEV(BB37:BE37)/SQRT(4)</f>
@@ -26303,19 +26287,19 @@
       </c>
       <c r="AN53" s="52">
         <f t="shared" ref="AN53:AN64" si="79">STDEV(BJ37:BM37)/SQRT(4)</f>
-        <v>0.0757393101773983</v>
+        <v>0.0757393101773979</v>
       </c>
       <c r="AO53" s="47">
         <f>STDEV(BN37:BQ37)/SQRT(4)</f>
-        <v>0.0946191662470768</v>
+        <v>0.0946191662470772</v>
       </c>
       <c r="AP53" s="47">
         <f t="shared" ref="AP53:AP64" si="80">STDEV(BR37:BU37)/SQRT(4)</f>
-        <v>0.00680877428615005</v>
+        <v>0.00680877428615</v>
       </c>
       <c r="AQ53" s="47">
         <f>STDEV(BV37:BY37)/SQRT(4)</f>
-        <v>0.0610914292159004</v>
+        <v>0.0610914292158999</v>
       </c>
       <c r="AR53" s="47">
         <f>STDEV(BZ37:CC37)/SQRT(4)</f>
@@ -26372,7 +26356,7 @@
       </c>
       <c r="L54" s="49">
         <f t="shared" ref="L54:L64" si="91">AVERAGE(AP38:AS38)</f>
-        <v>1.03108899162482</v>
+        <v>1.05075180084051</v>
       </c>
       <c r="M54" s="49">
         <f t="shared" ref="M54:M64" si="92">AVERAGE(AT38:AW38)</f>
@@ -26451,15 +26435,15 @@
       </c>
       <c r="AG54" s="49">
         <f t="shared" si="72"/>
-        <v>0.0984103062929242</v>
+        <v>0.0984103062929241</v>
       </c>
       <c r="AH54" s="49">
         <f t="shared" si="73"/>
-        <v>0.0786581801823264</v>
+        <v>0.0786581801823263</v>
       </c>
       <c r="AI54" s="49">
         <f t="shared" si="74"/>
-        <v>0.0755396303309435</v>
+        <v>0.0830632255204328</v>
       </c>
       <c r="AJ54" s="49">
         <f t="shared" si="75"/>
@@ -26475,15 +26459,15 @@
       </c>
       <c r="AM54" s="49">
         <f t="shared" si="78"/>
-        <v>0.0592926256578067</v>
+        <v>0.0592926256578074</v>
       </c>
       <c r="AN54" s="53">
         <f t="shared" si="79"/>
-        <v>0.157364997957402</v>
+        <v>0.157364997957403</v>
       </c>
       <c r="AO54" s="49">
         <f t="shared" ref="AO54:AO64" si="97">STDEV(BN38:BQ38)/SQRT(4)</f>
-        <v>0.0917932779093127</v>
+        <v>0.0917932779093114</v>
       </c>
       <c r="AP54" s="49">
         <f t="shared" si="80"/>
@@ -26548,7 +26532,7 @@
       </c>
       <c r="L55" s="49">
         <f t="shared" si="91"/>
-        <v>0.967346931623423</v>
+        <v>0.984810422772257</v>
       </c>
       <c r="M55" s="49">
         <f t="shared" si="92"/>
@@ -26560,7 +26544,7 @@
       </c>
       <c r="O55" s="49">
         <f t="shared" si="94"/>
-        <v>0.737203753310186</v>
+        <v>0.737203753310185</v>
       </c>
       <c r="P55" s="53">
         <f t="shared" si="95"/>
@@ -26627,15 +26611,15 @@
       </c>
       <c r="AG55" s="49">
         <f t="shared" si="72"/>
-        <v>0.0746314289369661</v>
+        <v>0.0746314289369667</v>
       </c>
       <c r="AH55" s="49">
         <f t="shared" si="73"/>
-        <v>0.0326512546610812</v>
+        <v>0.0326512546610819</v>
       </c>
       <c r="AI55" s="49">
         <f t="shared" si="74"/>
-        <v>0.0481105192674898</v>
+        <v>0.0515294575534657</v>
       </c>
       <c r="AJ55" s="49">
         <f t="shared" si="75"/>
@@ -26643,23 +26627,23 @@
       </c>
       <c r="AK55" s="49">
         <f t="shared" si="76"/>
-        <v>0.175126562053026</v>
+        <v>0.175126562053024</v>
       </c>
       <c r="AL55" s="49">
         <f t="shared" si="77"/>
-        <v>0.068497428823963</v>
+        <v>0.0684974288239637</v>
       </c>
       <c r="AM55" s="49">
         <f t="shared" si="78"/>
-        <v>0.0785270673642478</v>
+        <v>0.0785270673642484</v>
       </c>
       <c r="AN55" s="53">
         <f t="shared" si="79"/>
-        <v>0.16058408615232</v>
+        <v>0.160584086152321</v>
       </c>
       <c r="AO55" s="49">
         <f t="shared" si="97"/>
-        <v>0.0649492180335446</v>
+        <v>0.0649492180335434</v>
       </c>
       <c r="AP55" s="49">
         <f t="shared" si="80"/>
@@ -26724,7 +26708,7 @@
       </c>
       <c r="L56" s="49">
         <f t="shared" si="91"/>
-        <v>0.938749998366617</v>
+        <v>0.952761852368906</v>
       </c>
       <c r="M56" s="49">
         <f t="shared" si="92"/>
@@ -26736,7 +26720,7 @@
       </c>
       <c r="O56" s="49">
         <f t="shared" si="94"/>
-        <v>0.637630896377921</v>
+        <v>0.63763089637792</v>
       </c>
       <c r="P56" s="53">
         <f t="shared" si="95"/>
@@ -26803,7 +26787,7 @@
       </c>
       <c r="AG56" s="49">
         <f t="shared" si="72"/>
-        <v>0.150182289356364</v>
+        <v>0.150182289356365</v>
       </c>
       <c r="AH56" s="49">
         <f t="shared" si="73"/>
@@ -26811,7 +26795,7 @@
       </c>
       <c r="AI56" s="49">
         <f t="shared" si="74"/>
-        <v>0.0679462632389635</v>
+        <v>0.0575945861815632</v>
       </c>
       <c r="AJ56" s="49">
         <f t="shared" si="75"/>
@@ -26823,19 +26807,19 @@
       </c>
       <c r="AL56" s="49">
         <f t="shared" si="77"/>
-        <v>0.0474639334651191</v>
+        <v>0.047463933465119</v>
       </c>
       <c r="AM56" s="49">
         <f t="shared" si="78"/>
-        <v>0.067807652639053</v>
+        <v>0.0678076526390534</v>
       </c>
       <c r="AN56" s="53">
         <f t="shared" si="79"/>
-        <v>0.143282517832705</v>
+        <v>0.143282517832706</v>
       </c>
       <c r="AO56" s="49">
         <f t="shared" si="97"/>
-        <v>0.0848759359427434</v>
+        <v>0.0848759359427439</v>
       </c>
       <c r="AP56" s="49">
         <f t="shared" si="80"/>
@@ -26900,7 +26884,7 @@
       </c>
       <c r="L57" s="49">
         <f t="shared" si="91"/>
-        <v>0.857912043215221</v>
+        <v>0.867837215388401</v>
       </c>
       <c r="M57" s="49">
         <f t="shared" si="92"/>
@@ -26912,11 +26896,11 @@
       </c>
       <c r="O57" s="49">
         <f t="shared" si="94"/>
-        <v>0.550480512920904</v>
+        <v>0.550480512920903</v>
       </c>
       <c r="P57" s="53">
         <f t="shared" si="95"/>
-        <v>0.850056065924776</v>
+        <v>0.850056065924775</v>
       </c>
       <c r="Q57" s="49">
         <f t="shared" si="101"/>
@@ -26979,39 +26963,39 @@
       </c>
       <c r="AG57" s="49">
         <f t="shared" si="72"/>
-        <v>0.106414638114147</v>
+        <v>0.106414638114149</v>
       </c>
       <c r="AH57" s="49">
         <f t="shared" si="73"/>
-        <v>0.048781830426266</v>
+        <v>0.0487818304262665</v>
       </c>
       <c r="AI57" s="49">
         <f t="shared" si="74"/>
-        <v>0.10404977940431</v>
+        <v>0.0943268454069649</v>
       </c>
       <c r="AJ57" s="49">
         <f t="shared" si="75"/>
-        <v>0.196923094073116</v>
+        <v>0.196923094073117</v>
       </c>
       <c r="AK57" s="49">
         <f t="shared" si="76"/>
-        <v>0.0763817210680658</v>
+        <v>0.076381721068067</v>
       </c>
       <c r="AL57" s="49">
         <f t="shared" si="77"/>
-        <v>0.0312652170921124</v>
+        <v>0.0312652170921123</v>
       </c>
       <c r="AM57" s="49">
         <f t="shared" si="78"/>
-        <v>0.0584363647563638</v>
+        <v>0.0584363647563634</v>
       </c>
       <c r="AN57" s="53">
         <f t="shared" si="79"/>
-        <v>0.0848380895228592</v>
+        <v>0.0848380895228598</v>
       </c>
       <c r="AO57" s="49">
         <f t="shared" si="97"/>
-        <v>0.0645747875590962</v>
+        <v>0.064574787559097</v>
       </c>
       <c r="AP57" s="49">
         <f t="shared" si="80"/>
@@ -27072,11 +27056,11 @@
       </c>
       <c r="K58" s="49">
         <f t="shared" si="90"/>
-        <v>1.01212643663296</v>
+        <v>1.01212643663295</v>
       </c>
       <c r="L58" s="49">
         <f t="shared" si="91"/>
-        <v>0.889135001781096</v>
+        <v>0.899615372614114</v>
       </c>
       <c r="M58" s="49">
         <f t="shared" si="92"/>
@@ -27155,15 +27139,15 @@
       </c>
       <c r="AG58" s="49">
         <f t="shared" si="72"/>
-        <v>0.115383181216203</v>
+        <v>0.115383181216204</v>
       </c>
       <c r="AH58" s="49">
         <f t="shared" si="73"/>
-        <v>0.0579416099519717</v>
+        <v>0.0579416099519715</v>
       </c>
       <c r="AI58" s="49">
         <f t="shared" si="74"/>
-        <v>0.120723555543383</v>
+        <v>0.111985275189364</v>
       </c>
       <c r="AJ58" s="49">
         <f t="shared" si="75"/>
@@ -27171,11 +27155,11 @@
       </c>
       <c r="AK58" s="49">
         <f t="shared" si="76"/>
-        <v>0.0878678519319495</v>
+        <v>0.0878678519319493</v>
       </c>
       <c r="AL58" s="49">
         <f t="shared" si="77"/>
-        <v>0.0435221234112721</v>
+        <v>0.0435221234112723</v>
       </c>
       <c r="AM58" s="49">
         <f t="shared" si="78"/>
@@ -27183,11 +27167,11 @@
       </c>
       <c r="AN58" s="53">
         <f t="shared" si="79"/>
-        <v>0.0468147874836915</v>
+        <v>0.0468147874836917</v>
       </c>
       <c r="AO58" s="49">
         <f t="shared" si="97"/>
-        <v>0.0659387007027392</v>
+        <v>0.0659387007027396</v>
       </c>
       <c r="AP58" s="49">
         <f t="shared" si="80"/>
@@ -27248,11 +27232,11 @@
       </c>
       <c r="K59" s="49">
         <f t="shared" si="90"/>
-        <v>0.951075135604779</v>
+        <v>0.95107513560478</v>
       </c>
       <c r="L59" s="49">
         <f t="shared" si="91"/>
-        <v>1.01280703432801</v>
+        <v>1.02783361480452</v>
       </c>
       <c r="M59" s="49">
         <f t="shared" si="92"/>
@@ -27268,7 +27252,7 @@
       </c>
       <c r="P59" s="53">
         <f t="shared" si="95"/>
-        <v>0.809653949590925</v>
+        <v>0.809653949590926</v>
       </c>
       <c r="Q59" s="49">
         <f t="shared" si="101"/>
@@ -27276,7 +27260,7 @@
       </c>
       <c r="R59" s="30">
         <f t="shared" si="96"/>
-        <v>0.71725361541493</v>
+        <v>0.717253615414931</v>
       </c>
       <c r="S59" s="49">
         <f t="shared" si="60"/>
@@ -27335,19 +27319,19 @@
       </c>
       <c r="AH59" s="49">
         <f t="shared" si="73"/>
-        <v>0.0699936958959373</v>
+        <v>0.0699936958959369</v>
       </c>
       <c r="AI59" s="49">
         <f t="shared" si="74"/>
-        <v>0.0922352403510201</v>
+        <v>0.0833780341639967</v>
       </c>
       <c r="AJ59" s="49">
         <f t="shared" si="75"/>
-        <v>0.0590760700149027</v>
+        <v>0.0590760700149031</v>
       </c>
       <c r="AK59" s="49">
         <f t="shared" si="76"/>
-        <v>0.0252526461034577</v>
+        <v>0.0252526461034582</v>
       </c>
       <c r="AL59" s="49">
         <f t="shared" si="77"/>
@@ -27355,7 +27339,7 @@
       </c>
       <c r="AM59" s="49">
         <f t="shared" si="78"/>
-        <v>0.0943029142396922</v>
+        <v>0.0943029142396924</v>
       </c>
       <c r="AN59" s="53">
         <f t="shared" si="79"/>
@@ -27363,7 +27347,7 @@
       </c>
       <c r="AO59" s="49">
         <f t="shared" si="97"/>
-        <v>0.0581027145052941</v>
+        <v>0.0581027145052938</v>
       </c>
       <c r="AP59" s="49">
         <f t="shared" si="80"/>
@@ -27424,11 +27408,11 @@
       </c>
       <c r="K60" s="49">
         <f t="shared" si="90"/>
-        <v>0.849732931030977</v>
+        <v>0.849732931030978</v>
       </c>
       <c r="L60" s="49">
         <f t="shared" si="91"/>
-        <v>1.15042760238959</v>
+        <v>1.17608817251921</v>
       </c>
       <c r="M60" s="49">
         <f t="shared" si="92"/>
@@ -27436,11 +27420,11 @@
       </c>
       <c r="N60" s="49">
         <f t="shared" si="93"/>
-        <v>0.764278998492523</v>
+        <v>0.764278998492524</v>
       </c>
       <c r="O60" s="49">
         <f t="shared" si="94"/>
-        <v>1.34323644230576</v>
+        <v>1.34323644230577</v>
       </c>
       <c r="P60" s="53">
         <f t="shared" si="95"/>
@@ -27507,39 +27491,39 @@
       </c>
       <c r="AG60" s="49">
         <f t="shared" si="72"/>
-        <v>0.0339258508793339</v>
+        <v>0.0339258508793342</v>
       </c>
       <c r="AH60" s="49">
         <f t="shared" si="73"/>
-        <v>0.0169433390407439</v>
+        <v>0.0169433390407437</v>
       </c>
       <c r="AI60" s="49">
         <f t="shared" si="74"/>
-        <v>0.0964661485890707</v>
+        <v>0.121148020353853</v>
       </c>
       <c r="AJ60" s="49">
         <f t="shared" si="75"/>
-        <v>0.0762178166868618</v>
+        <v>0.076217816686862</v>
       </c>
       <c r="AK60" s="49">
         <f t="shared" si="76"/>
-        <v>0.120472004818272</v>
+        <v>0.120472004818273</v>
       </c>
       <c r="AL60" s="49">
         <f t="shared" si="77"/>
-        <v>0.0934208402035363</v>
+        <v>0.0934208402035359</v>
       </c>
       <c r="AM60" s="49">
         <f t="shared" si="78"/>
-        <v>0.103263246633621</v>
+        <v>0.103263246633622</v>
       </c>
       <c r="AN60" s="53">
         <f t="shared" si="79"/>
-        <v>0.0997810055598334</v>
+        <v>0.0997810055598335</v>
       </c>
       <c r="AO60" s="49">
         <f t="shared" si="97"/>
-        <v>0.0898532472343448</v>
+        <v>0.0898532472343447</v>
       </c>
       <c r="AP60" s="49">
         <f t="shared" si="80"/>
@@ -27596,7 +27580,7 @@
       </c>
       <c r="J61" s="49">
         <f t="shared" si="89"/>
-        <v>0.636824313328217</v>
+        <v>0.636824313328218</v>
       </c>
       <c r="K61" s="49">
         <f t="shared" si="90"/>
@@ -27604,7 +27588,7 @@
       </c>
       <c r="L61" s="49">
         <f t="shared" si="91"/>
-        <v>1.15240493276189</v>
+        <v>1.17613596650772</v>
       </c>
       <c r="M61" s="49">
         <f t="shared" si="92"/>
@@ -27612,7 +27596,7 @@
       </c>
       <c r="N61" s="49">
         <f t="shared" si="93"/>
-        <v>0.86047866672998</v>
+        <v>0.860478666729981</v>
       </c>
       <c r="O61" s="49">
         <f t="shared" si="94"/>
@@ -27624,7 +27608,7 @@
       </c>
       <c r="Q61" s="49">
         <f t="shared" si="101"/>
-        <v>0.649266852336427</v>
+        <v>0.649266852336428</v>
       </c>
       <c r="R61" s="30">
         <f t="shared" si="96"/>
@@ -27683,31 +27667,31 @@
       </c>
       <c r="AG61" s="49">
         <f t="shared" si="72"/>
-        <v>0.0298230913285419</v>
+        <v>0.0298230913285418</v>
       </c>
       <c r="AH61" s="49">
         <f t="shared" si="73"/>
-        <v>0.0525678521408976</v>
+        <v>0.0525678521408973</v>
       </c>
       <c r="AI61" s="49">
         <f t="shared" si="74"/>
-        <v>0.102388550956664</v>
+        <v>0.116949922168272</v>
       </c>
       <c r="AJ61" s="49">
         <f t="shared" si="75"/>
-        <v>0.0723257356523615</v>
+        <v>0.0723257356523613</v>
       </c>
       <c r="AK61" s="49">
         <f t="shared" si="76"/>
-        <v>0.123635887303362</v>
+        <v>0.123635887303361</v>
       </c>
       <c r="AL61" s="49">
         <f t="shared" si="77"/>
-        <v>0.0657628273265891</v>
+        <v>0.0657628273265881</v>
       </c>
       <c r="AM61" s="49">
         <f t="shared" si="78"/>
-        <v>0.0705627844418313</v>
+        <v>0.0705627844418305</v>
       </c>
       <c r="AN61" s="53">
         <f t="shared" si="79"/>
@@ -27772,19 +27756,19 @@
       </c>
       <c r="J62" s="49">
         <f t="shared" si="89"/>
-        <v>0.591205692970519</v>
+        <v>0.591205692970518</v>
       </c>
       <c r="K62" s="49">
         <f t="shared" si="90"/>
-        <v>0.974305290701133</v>
+        <v>0.974305290701132</v>
       </c>
       <c r="L62" s="49">
         <f t="shared" si="91"/>
-        <v>1.09930283994081</v>
+        <v>1.11944961285295</v>
       </c>
       <c r="M62" s="49">
         <f t="shared" si="92"/>
-        <v>0.307164894780091</v>
+        <v>0.30716489478009</v>
       </c>
       <c r="N62" s="49">
         <f t="shared" si="93"/>
@@ -27804,7 +27788,7 @@
       </c>
       <c r="R62" s="30">
         <f t="shared" si="96"/>
-        <v>0.763773741130635</v>
+        <v>0.763773741130634</v>
       </c>
       <c r="S62" s="49">
         <f t="shared" si="60"/>
@@ -27867,15 +27851,15 @@
       </c>
       <c r="AI62" s="49">
         <f t="shared" si="74"/>
-        <v>0.0524979326465374</v>
+        <v>0.0585954612647501</v>
       </c>
       <c r="AJ62" s="49">
         <f t="shared" si="75"/>
-        <v>0.0799663814206448</v>
+        <v>0.0799663814206447</v>
       </c>
       <c r="AK62" s="49">
         <f t="shared" si="76"/>
-        <v>0.0612181668633904</v>
+        <v>0.06121816686339</v>
       </c>
       <c r="AL62" s="49">
         <f t="shared" si="77"/>
@@ -27883,15 +27867,15 @@
       </c>
       <c r="AM62" s="49">
         <f t="shared" si="78"/>
-        <v>0.080978133853064</v>
+        <v>0.0809781338530636</v>
       </c>
       <c r="AN62" s="53">
         <f t="shared" si="79"/>
-        <v>0.0983348167819152</v>
+        <v>0.0983348167819151</v>
       </c>
       <c r="AO62" s="49">
         <f t="shared" si="97"/>
-        <v>0.0747062165910201</v>
+        <v>0.0747062165910203</v>
       </c>
       <c r="AP62" s="49">
         <f t="shared" si="80"/>
@@ -27952,11 +27936,11 @@
       </c>
       <c r="K63" s="49">
         <f t="shared" si="90"/>
-        <v>0.93468156902284</v>
+        <v>0.934681569022839</v>
       </c>
       <c r="L63" s="49">
         <f t="shared" si="91"/>
-        <v>1.05239208972831</v>
+        <v>1.07370553024781</v>
       </c>
       <c r="M63" s="49">
         <f t="shared" si="92"/>
@@ -27976,11 +27960,11 @@
       </c>
       <c r="Q63" s="49">
         <f t="shared" si="101"/>
-        <v>0.635791079281843</v>
+        <v>0.635791079281842</v>
       </c>
       <c r="R63" s="30">
         <f t="shared" si="96"/>
-        <v>0.748814846191174</v>
+        <v>0.748814846191173</v>
       </c>
       <c r="S63" s="49">
         <f t="shared" si="60"/>
@@ -28039,11 +28023,11 @@
       </c>
       <c r="AH63" s="49">
         <f t="shared" si="73"/>
-        <v>0.0491696400242856</v>
+        <v>0.049169640024286</v>
       </c>
       <c r="AI63" s="49">
         <f t="shared" si="74"/>
-        <v>0.0511637469465059</v>
+        <v>0.0703344081618354</v>
       </c>
       <c r="AJ63" s="49">
         <f t="shared" si="75"/>
@@ -28055,19 +28039,19 @@
       </c>
       <c r="AL63" s="49">
         <f t="shared" si="77"/>
-        <v>0.1745534003661</v>
+        <v>0.174553400366101</v>
       </c>
       <c r="AM63" s="49">
         <f t="shared" si="78"/>
-        <v>0.0772543599681987</v>
+        <v>0.0772543599681996</v>
       </c>
       <c r="AN63" s="53">
         <f t="shared" si="79"/>
-        <v>0.069386775563768</v>
+        <v>0.0693867755637682</v>
       </c>
       <c r="AO63" s="49">
         <f t="shared" si="97"/>
-        <v>0.0767524505504399</v>
+        <v>0.0767524505504401</v>
       </c>
       <c r="AP63" s="49">
         <f t="shared" si="80"/>
@@ -28124,23 +28108,23 @@
       </c>
       <c r="J64" s="51">
         <f t="shared" si="89"/>
-        <v>0.579265739299608</v>
+        <v>0.579265739299607</v>
       </c>
       <c r="K64" s="51">
         <f t="shared" si="90"/>
         <v>1.12705602736553</v>
       </c>
-      <c r="L64" s="51">
+      <c r="L64" s="51" t="e">
         <f t="shared" si="91"/>
-        <v>1.25248540426064</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M64" s="51">
         <f t="shared" si="92"/>
-        <v>0.408646095324427</v>
+        <v>0.408646095324426</v>
       </c>
       <c r="N64" s="51">
         <f t="shared" si="93"/>
-        <v>0.576018276339689</v>
+        <v>0.576018276339688</v>
       </c>
       <c r="O64" s="51">
         <f t="shared" si="94"/>
@@ -28152,11 +28136,11 @@
       </c>
       <c r="Q64" s="51">
         <f t="shared" si="101"/>
-        <v>0.849779971687834</v>
+        <v>0.849779971687833</v>
       </c>
       <c r="R64" s="43">
         <f t="shared" si="96"/>
-        <v>0.771711291403381</v>
+        <v>0.77171129140338</v>
       </c>
       <c r="S64" s="51">
         <f t="shared" si="60"/>
@@ -28211,15 +28195,15 @@
       </c>
       <c r="AG64" s="51">
         <f t="shared" si="72"/>
-        <v>0.0606245247445786</v>
+        <v>0.060624524744579</v>
       </c>
       <c r="AH64" s="51">
         <f t="shared" si="73"/>
-        <v>0.07422103237248</v>
-      </c>
-      <c r="AI64" s="51">
+        <v>0.0742210323724792</v>
+      </c>
+      <c r="AI64" s="51" t="e">
         <f t="shared" si="74"/>
-        <v>0.137642208594706</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ64" s="51">
         <f t="shared" si="75"/>
@@ -28227,7 +28211,7 @@
       </c>
       <c r="AK64" s="51">
         <f t="shared" si="76"/>
-        <v>0.0683977471361647</v>
+        <v>0.068397747136164</v>
       </c>
       <c r="AL64" s="51">
         <f t="shared" si="77"/>
@@ -28235,15 +28219,15 @@
       </c>
       <c r="AM64" s="51">
         <f t="shared" si="78"/>
-        <v>0.0781748146091371</v>
+        <v>0.0781748146091385</v>
       </c>
       <c r="AN64" s="54">
         <f t="shared" si="79"/>
-        <v>0.0786542392859522</v>
+        <v>0.0786542392859529</v>
       </c>
       <c r="AO64" s="51">
         <f t="shared" si="97"/>
-        <v>0.0684862116102313</v>
+        <v>0.0684862116102309</v>
       </c>
       <c r="AP64" s="51">
         <f t="shared" si="80"/>
@@ -28265,22 +28249,22 @@
     <row r="65" ht="14.25"/>
     <row r="66" ht="14.25" spans="1:1">
       <c r="A66" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:1">
       <c r="A68" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:1">
       <c r="A69" s="55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -28338,14 +28322,14 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="H1" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -28356,7 +28340,7 @@
         <v>1</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -28369,13 +28353,13 @@
     </row>
     <row r="2" ht="14.25" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -28403,36 +28387,36 @@
         <v>1.03525840225493</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -28705,13 +28689,13 @@
     </row>
     <row r="10" ht="14.25" spans="1:21">
       <c r="A10" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -28745,7 +28729,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" s="29">
         <v>6</v>
@@ -28762,7 +28746,7 @@
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" s="37">
         <v>6</v>
@@ -28793,7 +28777,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="31">
         <v>6</v>
@@ -28810,7 +28794,7 @@
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P12" s="38">
         <v>6</v>
@@ -28897,7 +28881,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
@@ -28906,7 +28890,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -28929,46 +28913,46 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="P16" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="Q16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="R16" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="S16" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="T16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>62</v>
-      </c>
       <c r="U16" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -28980,7 +28964,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="29">
         <v>0.0203259241821369</v>
@@ -29001,7 +28985,7 @@
         <v>5.05032905763265</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P17" s="37">
         <v>0.146194856466157</v>
@@ -29024,19 +29008,19 @@
     </row>
     <row r="18" ht="14.25" spans="1:21">
       <c r="A18" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="29">
         <v>0.0084403769877725</v>
@@ -29057,7 +29041,7 @@
         <v>6.60789097370337</v>
       </c>
       <c r="O18" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P18" s="37">
         <v>0.0328015403991832</v>
@@ -29092,7 +29076,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" s="29">
         <v>0.012962624247728</v>
@@ -29104,12 +29088,12 @@
         <v>0.00259252484954561</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
       <c r="O19" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P19" s="37">
         <v>0.0213562846077227</v>
@@ -29121,7 +29105,7 @@
         <v>0.00427125692154453</v>
       </c>
       <c r="S19" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T19" s="39"/>
       <c r="U19" s="39"/>
@@ -29144,7 +29128,7 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
@@ -29153,7 +29137,7 @@
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
       <c r="S20" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T20" s="39"/>
       <c r="U20" s="39"/>
@@ -29172,7 +29156,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" s="31">
         <v>0.0417289254176375</v>
@@ -29185,7 +29169,7 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" s="38">
         <v>0.200352681473063</v>
@@ -29273,13 +29257,13 @@
     </row>
     <row r="26" ht="14.25" spans="1:14">
       <c r="A26" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -29412,13 +29396,13 @@
     </row>
     <row r="34" ht="14.25" spans="1:14">
       <c r="A34" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -29515,13 +29499,13 @@
     </row>
     <row r="42" ht="14.25" spans="1:3">
       <c r="A42" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -29598,13 +29582,13 @@
     </row>
     <row r="50" ht="14.25" spans="1:3">
       <c r="A50" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -29681,13 +29665,13 @@
     </row>
     <row r="58" ht="14.25" spans="1:3">
       <c r="A58" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -29765,13 +29749,13 @@
     </row>
     <row r="66" ht="14.25" spans="1:3">
       <c r="A66" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -29848,13 +29832,13 @@
     </row>
     <row r="74" ht="14.25" spans="1:3">
       <c r="A74" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -29931,13 +29915,13 @@
     </row>
     <row r="82" ht="14.25" spans="1:3">
       <c r="A82" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -30014,13 +29998,13 @@
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -30097,13 +30081,13 @@
     </row>
     <row r="98" ht="14.25" spans="1:3">
       <c r="A98" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -30180,13 +30164,13 @@
     </row>
     <row r="106" ht="14.25" spans="1:3">
       <c r="A106" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -30263,13 +30247,13 @@
     </row>
     <row r="114" ht="14.25" spans="1:3">
       <c r="A114" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -30346,13 +30330,13 @@
     </row>
     <row r="122" ht="14.25" spans="1:3">
       <c r="A122" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:3">
